--- a/xlsx/半总统制_intext.xlsx
+++ b/xlsx/半总统制_intext.xlsx
@@ -15,393 +15,387 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>半总统制</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6</t>
+  </si>
+  <si>
+    <t>议会制</t>
+  </si>
+  <si>
+    <t>政策_政策_行政_半总统制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
+  </si>
+  <si>
+    <t>总统制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
+  </si>
+  <si>
+    <t>议会制君主立宪制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E5%88%B6%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
+  </si>
+  <si>
+    <t>二元制君主立宪制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E4%B8%93%E5%88%B6</t>
+  </si>
+  <si>
+    <t>君主专制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E6%89%A7%E6%94%BF</t>
+  </si>
+  <si>
+    <t>一党执政</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>军政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
+  </si>
+  <si>
+    <t>共和制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
+  </si>
+  <si>
+    <t>政体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
+  </si>
+  <si>
+    <t>国家元首</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%90%86</t>
+  </si>
+  <si>
+    <t>总理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3</t>
+  </si>
+  <si>
+    <t>内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83</t>
+  </si>
+  <si>
+    <t>国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%91%AA%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>威玛共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E8%A5%BF%E7%AC%AC%E4%B8%89%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>法兰西第三共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E8%A5%BF%E7%AC%AC%E5%9B%9B%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>法兰西第四共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%88%B6</t>
+  </si>
+  <si>
+    <t>议会民主制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%91%AA%E6%86%B2%E6%B3%95</t>
+  </si>
+  <si>
+    <t>威玛宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%B8%9D%E5%9B%BD%E8%AE%AE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>德意志帝国议会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A7%E6%80%A5%E7%8A%B6%E6%80%81</t>
+  </si>
+  <si>
+    <t>紧急状态</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E7%88%BE%C2%B7%E6%88%B4%E9%AB%98%E6%A8%82</t>
+  </si>
+  <si>
+    <t>夏尔·戴高乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E8%BD%AE%E9%80%89%E4%B8%BE%E5%88%B6</t>
+  </si>
+  <si>
+    <t>两轮选举制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>执政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3%E5%88%B6</t>
+  </si>
+  <si>
+    <t>内阁制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>冰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>芬兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
+  </si>
+  <si>
+    <t>立陶宛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
+  </si>
+  <si>
+    <t>波兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>罗马尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>斯洛维尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
+  </si>
+  <si>
+    <t>斯里兰卡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>蒙古国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中华民国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>吉尔吉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
+  </si>
+  <si>
+    <t>乌兹别克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>塔吉克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%93%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>土库曼斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
+  </si>
+  <si>
+    <t>阿塞拜疆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>亚美尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>拉脱维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>爱尔兰共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%83%E9%A6%96</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%84%91</t>
+  </si>
+  <si>
+    <t>政府首脑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E6%8C%87%E6%95%B0</t>
+  </si>
+  <si>
+    <t>民主指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%91%98%E5%88%B6</t>
+  </si>
+  <si>
+    <t>委员制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E9%99%A2%E5%B0%8D%E8%A1%8C%E6%94%BF%E9%99%A2%E9%99%A2%E9%95%B7%E4%B9%8B%E4%B8%8D%E4%BF%A1%E4%BB%BB%E6%A1%88</t>
+  </si>
+  <si>
+    <t>立法院对行政院院长之不信任案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%80%BB%E7%BB%9F%E5%88%B6</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6</t>
-  </si>
-  <si>
-    <t>议会制</t>
-  </si>
-  <si>
-    <t>政策_政策_政治_半总统制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
-  </si>
-  <si>
-    <t>总统制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
-  </si>
-  <si>
-    <t>议会制君主立宪制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E5%88%B6%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
-  </si>
-  <si>
-    <t>二元制君主立宪制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E4%B8%93%E5%88%B6</t>
-  </si>
-  <si>
-    <t>君主专制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E6%89%A7%E6%94%BF</t>
-  </si>
-  <si>
-    <t>一党执政</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>军政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
-  </si>
-  <si>
-    <t>總統制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
-  </si>
-  <si>
-    <t>議會制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
-  </si>
-  <si>
-    <t>共和制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
-  </si>
-  <si>
-    <t>政體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>總統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
-  </si>
-  <si>
-    <t>國家元首</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%90%86</t>
-  </si>
-  <si>
-    <t>總理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3</t>
-  </si>
-  <si>
-    <t>內閣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83</t>
-  </si>
-  <si>
-    <t>國會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%91%AA%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>威瑪共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>法國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E8%A5%BF%E7%AC%AC%E4%B8%89%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法兰西第三共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E8%A5%BF%E7%AC%AC%E5%9B%9B%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法兰西第四共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%88%B6</t>
-  </si>
-  <si>
-    <t>议会民主制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%91%AA%E6%86%B2%E6%B3%95</t>
-  </si>
-  <si>
-    <t>威瑪憲法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%B8%9D%E5%9B%BD%E8%AE%AE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>德意志帝国议会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A7%E6%80%A5%E7%8A%B6%E6%80%81</t>
-  </si>
-  <si>
-    <t>紧急状态</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E7%88%BE%C2%B7%E6%88%B4%E9%AB%98%E6%A8%82</t>
-  </si>
-  <si>
-    <t>夏爾·戴高樂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E8%BD%AE%E9%80%89%E4%B8%BE%E5%88%B6</t>
-  </si>
-  <si>
-    <t>两轮选举制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>執政黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3%E5%88%B6</t>
-  </si>
-  <si>
-    <t>內閣制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>冰島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
-  </si>
-  <si>
-    <t>波蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>斯洛維尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
-  </si>
-  <si>
-    <t>斯里蘭卡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
-  </si>
-  <si>
-    <t>烏克蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>蒙古国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中華民國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
-  </si>
-  <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
-  </si>
-  <si>
-    <t>白俄羅斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>吉爾吉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
-  </si>
-  <si>
-    <t>烏茲別克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%93%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>亞美尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>拉脫維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>愛爾蘭共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
-  </si>
-  <si>
-    <t>秘魯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%83%E9%A6%96</t>
-  </si>
-  <si>
-    <t>国家元首</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%84%91</t>
-  </si>
-  <si>
-    <t>政府首脑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E6%8C%87%E6%95%B0</t>
-  </si>
-  <si>
-    <t>民主指数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%91%98%E5%88%B6</t>
-  </si>
-  <si>
-    <t>委员制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E9%99%A2%E5%B0%8D%E8%A1%8C%E6%94%BF%E9%99%A2%E9%99%A2%E9%95%B7%E4%B9%8B%E4%B8%8D%E4%BF%A1%E4%BB%BB%E6%A1%88</t>
-  </si>
-  <si>
-    <t>立法院對行政院院長之不信任案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -750,7 +744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,10 +1027,10 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -1059,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>4</v>
@@ -1088,10 +1082,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
@@ -1117,10 +1111,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1146,13 +1140,13 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -1175,10 +1169,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1204,10 +1198,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G16" t="n">
         <v>10</v>
@@ -1233,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G17" t="n">
         <v>12</v>
@@ -1262,10 +1256,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G18" t="n">
         <v>15</v>
@@ -1291,10 +1285,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1320,10 +1314,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1349,10 +1343,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G21" t="n">
         <v>10</v>
@@ -1378,10 +1372,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -1407,10 +1401,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -1436,10 +1430,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1465,10 +1459,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1494,10 +1488,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1523,10 +1517,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G27" t="n">
         <v>11</v>
@@ -1552,10 +1546,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1581,10 +1575,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1610,10 +1604,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -1639,10 +1633,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1668,10 +1662,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1697,10 +1691,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G33" t="n">
         <v>4</v>
@@ -1726,10 +1720,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="G34" t="n">
         <v>5</v>
@@ -1755,10 +1749,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -1784,10 +1778,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G36" t="n">
         <v>5</v>
@@ -1813,10 +1807,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1842,10 +1836,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -1871,10 +1865,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1900,10 +1894,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -1929,10 +1923,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1958,10 +1952,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1987,10 +1981,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2016,10 +2010,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2045,10 +2039,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2074,10 +2068,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G46" t="n">
         <v>5</v>
@@ -2103,10 +2097,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -2132,10 +2126,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2161,10 +2155,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2190,10 +2184,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2219,10 +2213,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2248,10 +2242,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2277,10 +2271,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2306,10 +2300,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2335,10 +2329,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2364,10 +2358,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2393,10 +2387,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2422,10 +2416,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2451,10 +2445,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2480,10 +2474,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -2509,10 +2503,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2538,10 +2532,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2567,10 +2561,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2596,10 +2590,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2625,10 +2619,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -2654,10 +2648,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2666,6 +2660,64 @@
         <v>4</v>
       </c>
       <c r="I66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" t="s">
+        <v>125</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4</v>
+      </c>
+      <c r="H67" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" t="s">
+        <v>126</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68" t="n">
         <v>3</v>
       </c>
     </row>
